--- a/data/additional/simplified/free_indirect/tsv/metadata_fi.xlsx
+++ b/data/additional/simplified/free_indirect/tsv/metadata_fi.xlsx
@@ -1,23 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\simplified\free_indirect\tsv\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CC611F-DCAF-4491-B962-0C5818401E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="14610" yWindow="1680" windowWidth="24660" windowHeight="14400" xr2:uid="{69788829-8828-4B59-A720-AB9BAA479366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="metadata_fi" localSheetId="0">Tabelle1!$A$1:$E$143</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{6419F9B1-DBCA-4CEB-9423-3BC30952A878}" name="metadata_fi" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\GitHub_RW\corpus\data\additional\simplified\free_indirect\tsv\metadata_fi.tsv" decimal="," thousands=".">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="333">
   <si>
@@ -33,7 +65,10 @@
     <t>year</t>
   </si>
   <si>
-    <t>digbib_167</t>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>rwk_digbib_167.tsv</t>
   </si>
   <si>
     <t>Altenberg, Peter</t>
@@ -42,7 +77,7 @@
     <t>Paulina</t>
   </si>
   <si>
-    <t>digbib_934</t>
+    <t>rwk_digbib_934.tsv</t>
   </si>
   <si>
     <t>Bjørnson, Bjørnstjerne</t>
@@ -51,16 +86,16 @@
     <t>Synnöve Solbakken</t>
   </si>
   <si>
-    <t>digbib_1019</t>
-  </si>
-  <si>
-    <t>Čechov, Anton Pavlovič</t>
+    <t>rwk_digbib_1019.tsv</t>
+  </si>
+  <si>
+    <t>?echov, Anton Pavlovi?</t>
   </si>
   <si>
     <t>Die Dame mit dem Hündchen</t>
   </si>
   <si>
-    <t>digbib_1023</t>
+    <t>rwk_digbib_1023.tsv</t>
   </si>
   <si>
     <t>Christ, Lena</t>
@@ -69,7 +104,7 @@
     <t>Der Guldensack</t>
   </si>
   <si>
-    <t>digbib_1038</t>
+    <t>rwk_digbib_1038.tsv</t>
   </si>
   <si>
     <t>Christen, Ada</t>
@@ -78,7 +113,7 @@
     <t>Als er heimkehrte</t>
   </si>
   <si>
-    <t>digbib_1133</t>
+    <t>rwk_digbib_1133.tsv</t>
   </si>
   <si>
     <t>Dohm, Hedwig</t>
@@ -87,13 +122,13 @@
     <t>Werde, die Du bist!</t>
   </si>
   <si>
-    <t>digbib_1134</t>
+    <t>rwk_digbib_1134.tsv</t>
   </si>
   <si>
     <t>Wie Frauen werden</t>
   </si>
   <si>
-    <t>digbib_1136</t>
+    <t>rwk_digbib_1136.tsv</t>
   </si>
   <si>
     <t>Droste-Hülshoff, Annette von</t>
@@ -102,7 +137,7 @@
     <t>Die Judenbuche</t>
   </si>
   <si>
-    <t>digbib_1138</t>
+    <t>rwk_digbib_1138.tsv</t>
   </si>
   <si>
     <t>Duncker, Dora</t>
@@ -111,64 +146,43 @@
     <t>Für ihr Kind</t>
   </si>
   <si>
-    <t>digbib_1139</t>
+    <t>rwk_digbib_1139.tsv</t>
   </si>
   <si>
     <t>Gundula. Die Tragödie einer Ehe</t>
   </si>
   <si>
-    <t>digbib_1140</t>
-  </si>
-  <si>
-    <t>digbib_3140</t>
+    <t>rwk_digbib_1140.tsv</t>
   </si>
   <si>
     <t>Jugend</t>
   </si>
   <si>
-    <t>digbib_1141</t>
+    <t>rwk_digbib_1141.tsv</t>
   </si>
   <si>
     <t>Mütter</t>
   </si>
   <si>
-    <t>digbib_1142</t>
+    <t>rwk_digbib_1142.tsv</t>
   </si>
   <si>
     <t>Seine Letzte</t>
   </si>
   <si>
-    <t>digbib_1143</t>
-  </si>
-  <si>
-    <t>digbib_1153</t>
-  </si>
-  <si>
-    <t>digbib_1163</t>
-  </si>
-  <si>
-    <t>digbib_1173</t>
-  </si>
-  <si>
-    <t>digbib_1183</t>
-  </si>
-  <si>
-    <t>digbib_1213</t>
-  </si>
-  <si>
-    <t>digbib_1313</t>
+    <t>rwk_digbib_1143.tsv</t>
   </si>
   <si>
     <t>Sturm</t>
   </si>
   <si>
-    <t>digbib_1144</t>
+    <t>rwk_digbib_1144.tsv</t>
   </si>
   <si>
     <t>Unüberwindlich</t>
   </si>
   <si>
-    <t>digbib_1146</t>
+    <t>rwk_digbib_1146.tsv</t>
   </si>
   <si>
     <t>Ebner-Eschenbach, Marie von</t>
@@ -177,52 +191,55 @@
     <t>Das Schädliche</t>
   </si>
   <si>
-    <t>digbib_1147</t>
+    <t>rwk_digbib_1147.tsv</t>
   </si>
   <si>
     <t>Der gute Mond</t>
   </si>
   <si>
-    <t>digbib_1148</t>
+    <t>rwk_digbib_1148.tsv</t>
   </si>
   <si>
     <t>Der Herr Hofrat</t>
   </si>
   <si>
-    <t>digbib_1149</t>
+    <t>rwk_digbib_1149.tsv</t>
   </si>
   <si>
     <t>Der Kreisphysikus</t>
   </si>
   <si>
-    <t>digbib_1150</t>
+    <t>rwk_digbib_1150.tsv</t>
   </si>
   <si>
     <t>Der Vorzugsschüler</t>
   </si>
   <si>
+    <t>rwk_digbib_1153.tsv</t>
+  </si>
+  <si>
     <t>Ein Spätgeborner</t>
   </si>
   <si>
-    <t>digbib_1155</t>
+    <t>rwk_digbib_1155.tsv</t>
   </si>
   <si>
     <t>Ihr Traum</t>
   </si>
   <si>
-    <t>digbib_1156</t>
+    <t>rwk_digbib_1156.tsv</t>
   </si>
   <si>
     <t>Krambambuli</t>
   </si>
   <si>
-    <t>digbib_1158</t>
+    <t>rwk_digbib_1158.tsv</t>
   </si>
   <si>
     <t>Nach dem Tode</t>
   </si>
   <si>
-    <t>digbib_1160</t>
+    <t>rwk_digbib_1160.tsv</t>
   </si>
   <si>
     <t>Essig, Hermann</t>
@@ -231,7 +248,7 @@
     <t>Der Wetterfrosch</t>
   </si>
   <si>
-    <t>digbib_1162</t>
+    <t>rwk_digbib_1162.tsv</t>
   </si>
   <si>
     <t>Federer, Heinrich</t>
@@ -240,22 +257,25 @@
     <t>Der gestohlene König von Belgien</t>
   </si>
   <si>
+    <t>rwk_digbib_1163.tsv</t>
+  </si>
+  <si>
     <t>Die Manöver</t>
   </si>
   <si>
-    <t>digbib_1164</t>
+    <t>rwk_digbib_1164.tsv</t>
   </si>
   <si>
     <t>Unser Nachtwächter Prometheus</t>
   </si>
   <si>
-    <t>digbib_1165</t>
+    <t>rwk_digbib_1165.tsv</t>
   </si>
   <si>
     <t>Vater und Sohn im Examen</t>
   </si>
   <si>
-    <t>digbib_1167</t>
+    <t>rwk_digbib_1167.tsv</t>
   </si>
   <si>
     <t>Fontane, Theodor</t>
@@ -264,43 +284,46 @@
     <t>Grete Minde</t>
   </si>
   <si>
-    <t>digbib_1171</t>
+    <t>rwk_digbib_1171.tsv</t>
+  </si>
+  <si>
+    <t>Franzos, Karl Emil</t>
   </si>
   <si>
     <t>Das Christusbild</t>
   </si>
   <si>
-    <t>digbib_1172</t>
+    <t>rwk_digbib_1172.tsv</t>
   </si>
   <si>
     <t>Das "Kind der Sühne"</t>
   </si>
   <si>
+    <t>rwk_digbib_1173.tsv</t>
+  </si>
+  <si>
     <t>Der Shylock von Barnow</t>
   </si>
   <si>
-    <t>digbib_1174</t>
+    <t>rwk_digbib_1174.tsv</t>
   </si>
   <si>
     <t>Der wilde Starost und die schöne Jütta</t>
   </si>
   <si>
-    <t>Franzos, Karl Emil</t>
-  </si>
-  <si>
-    <t>digbib_1177</t>
+    <t>rwk_digbib_1177.tsv</t>
   </si>
   <si>
     <t>Nach dem höheren Gesetz</t>
   </si>
   <si>
-    <t>digbib_1178</t>
+    <t>rwk_digbib_1178.tsv</t>
   </si>
   <si>
     <t>Ohne Inschrift</t>
   </si>
   <si>
-    <t>digbib_1182</t>
+    <t>rwk_digbib_1182.tsv</t>
   </si>
   <si>
     <t>François, Louise von</t>
@@ -309,16 +332,19 @@
     <t>Der Posten der Frau</t>
   </si>
   <si>
+    <t>rwk_digbib_1183.tsv</t>
+  </si>
+  <si>
     <t>Die Geschichte meines Urgroßvaters</t>
   </si>
   <si>
-    <t>digbib_1185</t>
+    <t>rwk_digbib_1185.tsv</t>
   </si>
   <si>
     <t>Phosphorus Hollunder</t>
   </si>
   <si>
-    <t>digbib_1186</t>
+    <t>rwk_digbib_1186.tsv</t>
   </si>
   <si>
     <t>Frapan, Ilse</t>
@@ -327,13 +353,13 @@
     <t>Altmodische Leute</t>
   </si>
   <si>
-    <t>digbib_1189</t>
+    <t>rwk_digbib_1189.tsv</t>
   </si>
   <si>
     <t>Die Last</t>
   </si>
   <si>
-    <t>digbib_1195</t>
+    <t>rwk_digbib_1195.tsv</t>
   </si>
   <si>
     <t>Gotthelf, Jeremias</t>
@@ -342,19 +368,19 @@
     <t>Barthli der Korber</t>
   </si>
   <si>
-    <t>digbib_1196</t>
+    <t>rwk_digbib_1196.tsv</t>
   </si>
   <si>
     <t>Das Erdbeerimareili</t>
   </si>
   <si>
-    <t>digbib_1197</t>
+    <t>rwk_digbib_1197.tsv</t>
   </si>
   <si>
     <t>Die schwarze Spinne</t>
   </si>
   <si>
-    <t>digbib_1199</t>
+    <t>rwk_digbib_1199.tsv</t>
   </si>
   <si>
     <t>Grillparzer, Franz</t>
@@ -363,7 +389,7 @@
     <t>Der arme Spielmann</t>
   </si>
   <si>
-    <t>digbib_1207</t>
+    <t>rwk_digbib_1207.tsv</t>
   </si>
   <si>
     <t>Heyking, Elisabeth von</t>
@@ -372,19 +398,19 @@
     <t>Der Tag Anderer</t>
   </si>
   <si>
-    <t>digbib_1208</t>
+    <t>rwk_digbib_1208.tsv</t>
   </si>
   <si>
     <t>Gewesen</t>
   </si>
   <si>
-    <t>digbib_1209</t>
+    <t>rwk_digbib_1209.tsv</t>
   </si>
   <si>
     <t>Über einen Hund und die Monroe-Doktrin</t>
   </si>
   <si>
-    <t>digbib_1211</t>
+    <t>rwk_digbib_1211.tsv</t>
   </si>
   <si>
     <t>Heym, Georg</t>
@@ -393,16 +419,19 @@
     <t>Der Dieb</t>
   </si>
   <si>
+    <t>rwk_digbib_1213.tsv</t>
+  </si>
+  <si>
     <t>Der Irre</t>
   </si>
   <si>
-    <t>digbib_1216</t>
+    <t>rwk_digbib_1216.tsv</t>
   </si>
   <si>
     <t>Jonathan</t>
   </si>
   <si>
-    <t>digbib_1217</t>
+    <t>rwk_digbib_1217.tsv</t>
   </si>
   <si>
     <t>Heyse, Paul</t>
@@ -411,7 +440,7 @@
     <t>Andrea Delfin</t>
   </si>
   <si>
-    <t>digbib_1224</t>
+    <t>rwk_digbib_1224.tsv</t>
   </si>
   <si>
     <t>Holz, Arno</t>
@@ -420,73 +449,76 @@
     <t>Der erste Schultag</t>
   </si>
   <si>
-    <t>digbib_1225</t>
+    <t>rwk_digbib_1225.tsv</t>
   </si>
   <si>
     <t>Ein Tod</t>
   </si>
   <si>
-    <t>digbib_1226</t>
+    <t>rwk_digbib_1226.tsv</t>
   </si>
   <si>
     <t>Papa Hamlet</t>
   </si>
   <si>
+    <t>rwk_digbib_1313.tsv</t>
+  </si>
+  <si>
     <t>Janitschek, Maria</t>
   </si>
   <si>
     <t>Elias</t>
   </si>
   <si>
-    <t>digbib_1315</t>
+    <t>rwk_digbib_1315.tsv</t>
   </si>
   <si>
     <t>Hysterie</t>
   </si>
   <si>
-    <t>digbib_1316</t>
+    <t>rwk_digbib_1316.tsv</t>
   </si>
   <si>
     <t>In elfter Stunde</t>
   </si>
   <si>
-    <t>digbib_1317</t>
+    <t>rwk_digbib_1317.tsv</t>
   </si>
   <si>
     <t>Kind Gottes</t>
   </si>
   <si>
-    <t>digbib_1318</t>
+    <t>rwk_digbib_1318.tsv</t>
   </si>
   <si>
     <t>Klare Rechnung</t>
   </si>
   <si>
-    <t>digbib_1319</t>
+    <t>rwk_digbib_1319.tsv</t>
   </si>
   <si>
     <t>Königin Judith</t>
   </si>
   <si>
-    <t>digbib_1320</t>
+    <t>rwk_digbib_1320.tsv</t>
   </si>
   <si>
     <t>Land!</t>
   </si>
   <si>
-    <t>digbib_1321</t>
+    <t>rwk_digbib_1321.tsv</t>
   </si>
   <si>
     <t>Liebeswunder</t>
   </si>
   <si>
-    <t>digbib_1322</t>
+    <t>rwk_digbib_1322.tsv</t>
   </si>
   <si>
     <t>Lilienzauber</t>
   </si>
   <si>
-    <t>digbib_1328</t>
+    <t>rwk_digbib_1328.tsv</t>
   </si>
   <si>
     <t>Jensen, Wilhelm</t>
@@ -495,7 +527,7 @@
     <t>Gradiva</t>
   </si>
   <si>
-    <t>digbib_1329</t>
+    <t>rwk_digbib_1329.tsv</t>
   </si>
   <si>
     <t>Keller, Gottfried</t>
@@ -504,37 +536,37 @@
     <t>Das Fähnlein der sieben Aufrechten</t>
   </si>
   <si>
-    <t>digbib_1331</t>
+    <t>rwk_digbib_1331.tsv</t>
   </si>
   <si>
     <t>Das verlorne Lachen</t>
   </si>
   <si>
-    <t>digbib_1332</t>
+    <t>rwk_digbib_1332.tsv</t>
   </si>
   <si>
     <t>Der Landvogt von Greifensee</t>
   </si>
   <si>
-    <t>digbib_1338</t>
+    <t>rwk_digbib_1338.tsv</t>
   </si>
   <si>
     <t>Frau Regel Amrain und ihr Jüngster</t>
   </si>
   <si>
-    <t>digbib_1339</t>
+    <t>rwk_digbib_1339.tsv</t>
   </si>
   <si>
     <t>Hadlaub</t>
   </si>
   <si>
-    <t>digbib_1342</t>
+    <t>rwk_digbib_1342.tsv</t>
   </si>
   <si>
     <t>Romeo und Julia auf dem Dorfe</t>
   </si>
   <si>
-    <t>digbib_1345</t>
+    <t>rwk_digbib_1345.tsv</t>
   </si>
   <si>
     <t>Keyserling, Eduard von</t>
@@ -543,13 +575,13 @@
     <t>Beate und Mareile</t>
   </si>
   <si>
-    <t>digbib_1346</t>
+    <t>rwk_digbib_1346.tsv</t>
   </si>
   <si>
     <t>Schwüle Tage</t>
   </si>
   <si>
-    <t>digbib_1865</t>
+    <t>rwk_digbib_1865.tsv</t>
   </si>
   <si>
     <t>Kurz, Hermann</t>
@@ -558,16 +590,16 @@
     <t>Die beiden Tubus</t>
   </si>
   <si>
-    <t>digbib_1868</t>
-  </si>
-  <si>
-    <t>Leskov, Semënovič Nikolaj</t>
+    <t>rwk_digbib_1868.tsv</t>
+  </si>
+  <si>
+    <t>Leskov, Semënovi? Nikolaj</t>
   </si>
   <si>
     <t>Der versiegelte Engel</t>
   </si>
   <si>
-    <t>digbib_1891</t>
+    <t>rwk_digbib_1891.tsv</t>
   </si>
   <si>
     <t>Marlitt, Eugenie</t>
@@ -576,13 +608,13 @@
     <t>Blaubart</t>
   </si>
   <si>
-    <t>digbib_1892</t>
+    <t>rwk_digbib_1892.tsv</t>
   </si>
   <si>
     <t>Die zwölf Apostel</t>
   </si>
   <si>
-    <t>digbib_1967</t>
+    <t>rwk_digbib_1967.tsv</t>
   </si>
   <si>
     <t>Meyer, Conrad Ferdinand</t>
@@ -591,37 +623,37 @@
     <t>Das Amulett</t>
   </si>
   <si>
-    <t>digbib_1968</t>
+    <t>rwk_digbib_1968.tsv</t>
   </si>
   <si>
     <t>Das Leiden eines Knaben</t>
   </si>
   <si>
-    <t>digbib_1970</t>
+    <t>rwk_digbib_1970.tsv</t>
   </si>
   <si>
     <t>Der Schuß von der Kanzel</t>
   </si>
   <si>
-    <t>digbib_1971</t>
+    <t>rwk_digbib_1971.tsv</t>
   </si>
   <si>
     <t>Die Hochzeit des Mönchs</t>
   </si>
   <si>
-    <t>digbib_1972</t>
+    <t>rwk_digbib_1972.tsv</t>
   </si>
   <si>
     <t>Die Richterin</t>
   </si>
   <si>
-    <t>digbib_1974</t>
+    <t>rwk_digbib_1974.tsv</t>
   </si>
   <si>
     <t>Gustav Adolfs Page</t>
   </si>
   <si>
-    <t>digbib_1977</t>
+    <t>rwk_digbib_1977.tsv</t>
   </si>
   <si>
     <t>Meyrink, Gustav</t>
@@ -630,25 +662,25 @@
     <t>Blamol</t>
   </si>
   <si>
-    <t>digbib_1980</t>
+    <t>rwk_digbib_1980.tsv</t>
   </si>
   <si>
     <t>Coagulum</t>
   </si>
   <si>
-    <t>digbib_1982</t>
+    <t>rwk_digbib_1982.tsv</t>
   </si>
   <si>
     <t>Das Buch Hiopp</t>
   </si>
   <si>
-    <t>digbib_2012</t>
+    <t>rwk_digbib_2012.tsv</t>
   </si>
   <si>
     <t>Hilligenlei</t>
   </si>
   <si>
-    <t>digbib_2026</t>
+    <t>rwk_digbib_2026.tsv</t>
   </si>
   <si>
     <t>Meysenbug, Malwida Freiin von</t>
@@ -657,13 +689,13 @@
     <t>Unerfüllt</t>
   </si>
   <si>
-    <t>digbib_2027</t>
+    <t>rwk_digbib_2027.tsv</t>
   </si>
   <si>
     <t>Zu spät</t>
   </si>
   <si>
-    <t>digbib_2031</t>
+    <t>rwk_digbib_2031.tsv</t>
   </si>
   <si>
     <t>Mörike, Eduard</t>
@@ -672,7 +704,7 @@
     <t>Mozart auf der Reise nach Prag</t>
   </si>
   <si>
-    <t>digbib_2444</t>
+    <t>rwk_digbib_2444.tsv</t>
   </si>
   <si>
     <t>Müller, Robert</t>
@@ -681,7 +713,7 @@
     <t>Irmelin Rose</t>
   </si>
   <si>
-    <t>digbib_2445</t>
+    <t>rwk_digbib_2445.tsv</t>
   </si>
   <si>
     <t>Panizza, Oskar</t>
@@ -690,25 +722,25 @@
     <t>Aus dem Tagebuch eines Hundes</t>
   </si>
   <si>
-    <t>digbib_2451</t>
+    <t>rwk_digbib_2451.tsv</t>
   </si>
   <si>
     <t>Der operirte Jud'</t>
   </si>
   <si>
-    <t>digbib_2455</t>
+    <t>rwk_digbib_2455.tsv</t>
   </si>
   <si>
     <t>Eine Mondgeschichte</t>
   </si>
   <si>
-    <t>digbib_2459</t>
+    <t>rwk_digbib_2459.tsv</t>
   </si>
   <si>
     <t>Ein scandalöser Fall</t>
   </si>
   <si>
-    <t>digbib_2462</t>
+    <t>rwk_digbib_2462.tsv</t>
   </si>
   <si>
     <t>Poe, Edgar Allan</t>
@@ -717,7 +749,7 @@
     <t>Das Geheimnis der Marie Rogêt</t>
   </si>
   <si>
-    <t>digbib_2622</t>
+    <t>rwk_digbib_2622.tsv</t>
   </si>
   <si>
     <t>Raabe, Wilhelm</t>
@@ -726,25 +758,25 @@
     <t>Die Gänse von Bützow</t>
   </si>
   <si>
-    <t>digbib_2623</t>
+    <t>rwk_digbib_2623.tsv</t>
   </si>
   <si>
     <t>Die schwarze Galeere</t>
   </si>
   <si>
-    <t>digbib_2624</t>
+    <t>rwk_digbib_2624.tsv</t>
   </si>
   <si>
     <t>Else von der Tanne</t>
   </si>
   <si>
-    <t>digbib_2625</t>
+    <t>rwk_digbib_2625.tsv</t>
   </si>
   <si>
     <t>Frau Salome</t>
   </si>
   <si>
-    <t>digbib_2650</t>
+    <t>rwk_digbib_2650.tsv</t>
   </si>
   <si>
     <t>Riehl, Wilhelm Heinrich von</t>
@@ -753,37 +785,37 @@
     <t>Der Stadtpfeifer</t>
   </si>
   <si>
-    <t>digbib_2651</t>
+    <t>rwk_digbib_2651.tsv</t>
   </si>
   <si>
     <t>Die Lehrjahre eines Humanisten</t>
   </si>
   <si>
-    <t>digbib_2652</t>
+    <t>rwk_digbib_2652.tsv</t>
   </si>
   <si>
     <t>Die Werke der Barmherzigkeit</t>
   </si>
   <si>
-    <t>digbib_2653</t>
+    <t>rwk_digbib_2653.tsv</t>
   </si>
   <si>
     <t>Gräfin Ursula</t>
   </si>
   <si>
-    <t>digbib_2655</t>
+    <t>rwk_digbib_2655.tsv</t>
   </si>
   <si>
     <t>Meister Martin Hildebrand</t>
   </si>
   <si>
-    <t>digbib_2656</t>
+    <t>rwk_digbib_2656.tsv</t>
   </si>
   <si>
     <t>Ovid bei Hofe</t>
   </si>
   <si>
-    <t>digbib_2661</t>
+    <t>rwk_digbib_2661.tsv</t>
   </si>
   <si>
     <t>Rosegger, Peter</t>
@@ -792,7 +824,7 @@
     <t>Ein Letztes vom alten Meister Naz</t>
   </si>
   <si>
-    <t>digbib_2801</t>
+    <t>rwk_digbib_2801.tsv</t>
   </si>
   <si>
     <t>Saar, Ferdinand von</t>
@@ -801,19 +833,19 @@
     <t>Die Pfründer</t>
   </si>
   <si>
-    <t>digbib_2806</t>
+    <t>rwk_digbib_2806.tsv</t>
   </si>
   <si>
     <t>Geschichte eines Wienerkindes</t>
   </si>
   <si>
-    <t>digbib_2808</t>
+    <t>rwk_digbib_2808.tsv</t>
   </si>
   <si>
     <t>Herr Fridolin und sein Glück</t>
   </si>
   <si>
-    <t>digbib_2996</t>
+    <t>rwk_digbib_2996.tsv</t>
   </si>
   <si>
     <t>Schnitzler, Arthur</t>
@@ -822,127 +854,130 @@
     <t>Casanovas Heimfahrt</t>
   </si>
   <si>
-    <t>digbib_2998</t>
+    <t>rwk_digbib_2998.tsv</t>
   </si>
   <si>
     <t>Das Schicksal des Freiherrn von Leisenbohg</t>
   </si>
   <si>
-    <t>digbib_3001</t>
+    <t>rwk_digbib_3001.tsv</t>
   </si>
   <si>
     <t>Der blinde Geronimo und sein Bruder</t>
   </si>
   <si>
-    <t>digbib_3002</t>
+    <t>rwk_digbib_3002.tsv</t>
   </si>
   <si>
     <t>Der Ehrentag</t>
   </si>
   <si>
-    <t>digbib_3016</t>
+    <t>rwk_digbib_3016.tsv</t>
   </si>
   <si>
     <t>Die Toten schweigen</t>
   </si>
   <si>
-    <t>digbib_3018</t>
+    <t>rwk_digbib_3018.tsv</t>
   </si>
   <si>
     <t>Doktor Gräsler, Badearzt</t>
   </si>
   <si>
-    <t>digbib_3019</t>
+    <t>rwk_digbib_3019.tsv</t>
   </si>
   <si>
     <t>Ein Abschied</t>
   </si>
   <si>
-    <t>digbib_3022</t>
+    <t>rwk_digbib_3022.tsv</t>
   </si>
   <si>
     <t>Frau Beate und ihr Sohn</t>
   </si>
   <si>
-    <t>digbib_3028</t>
+    <t>rwk_digbib_3028.tsv</t>
   </si>
   <si>
     <t>Reichtum</t>
   </si>
   <si>
-    <t>digbib_3029</t>
+    <t>rwk_digbib_3029.tsv</t>
   </si>
   <si>
     <t>Sterben</t>
   </si>
   <si>
+    <t>rwk_digbib_3140.tsv</t>
+  </si>
+  <si>
     <t>Storm, Theodor</t>
   </si>
   <si>
     <t>Bötjer Basch</t>
   </si>
   <si>
-    <t>digbib_3155</t>
+    <t>rwk_digbib_3155.tsv</t>
   </si>
   <si>
     <t>Ein Doppelgänger</t>
   </si>
   <si>
-    <t>digbib_3159</t>
+    <t>rwk_digbib_3159.tsv</t>
   </si>
   <si>
     <t>Hans und Heinz Kirch</t>
   </si>
   <si>
-    <t>digbib_3167</t>
+    <t>rwk_digbib_3167.tsv</t>
   </si>
   <si>
     <t>John Riew'</t>
   </si>
   <si>
-    <t>digbib_3169</t>
+    <t>rwk_digbib_3169.tsv</t>
   </si>
   <si>
     <t>Pole Poppenspaeler</t>
   </si>
   <si>
-    <t>digbib_3170</t>
+    <t>rwk_digbib_3170.tsv</t>
   </si>
   <si>
     <t>Psyche</t>
   </si>
   <si>
-    <t>digbib_3172</t>
+    <t>rwk_digbib_3172.tsv</t>
   </si>
   <si>
     <t>Schweigen</t>
   </si>
   <si>
-    <t>digbib_3175</t>
+    <t>rwk_digbib_3175.tsv</t>
   </si>
   <si>
     <t>Viola tricolor</t>
   </si>
   <si>
-    <t>digbib_3176</t>
+    <t>rwk_digbib_3176.tsv</t>
   </si>
   <si>
     <t>Waldwinkel</t>
   </si>
   <si>
-    <t>digbib_3177</t>
+    <t>rwk_digbib_3177.tsv</t>
   </si>
   <si>
     <t>Zur Chronik von Gieshuus</t>
   </si>
   <si>
-    <t>digbib_3178</t>
+    <t>rwk_digbib_3178.tsv</t>
   </si>
   <si>
     <t>Zur Wald- und Wasserfreude</t>
   </si>
   <si>
-    <t>digbib_3180</t>
+    <t>rwk_digbib_3180.tsv</t>
   </si>
   <si>
     <t>Sudermann, Hermann</t>
@@ -951,19 +986,19 @@
     <t>Die Magd</t>
   </si>
   <si>
-    <t>digbib_3181</t>
+    <t>rwk_digbib_3181.tsv</t>
   </si>
   <si>
     <t>Die Reise nach Tilsit</t>
   </si>
   <si>
-    <t>digbib_3183</t>
+    <t>rwk_digbib_3183.tsv</t>
   </si>
   <si>
     <t>Miks Bumbullis</t>
   </si>
   <si>
-    <t>digbib_3188</t>
+    <t>rwk_digbib_3188.tsv</t>
   </si>
   <si>
     <t>Turgenev, Ivan Sergeeviç</t>
@@ -972,7 +1007,7 @@
     <t>Faust. Erzählung in neun Briefen</t>
   </si>
   <si>
-    <t>digbib_3208</t>
+    <t>rwk_digbib_3208.tsv</t>
   </si>
   <si>
     <t>Verne, Jules</t>
@@ -981,59 +1016,48 @@
     <t>Die Blockade-Brecher</t>
   </si>
   <si>
-    <t>digbib_3210</t>
+    <t>rwk_digbib_3210.tsv</t>
   </si>
   <si>
     <t>Eine Ueberwinterung im Eise</t>
   </si>
   <si>
-    <t>digbib_3211</t>
+    <t>rwk_digbib_3211.tsv</t>
   </si>
   <si>
     <t>Ein Drama in den Lüften</t>
   </si>
   <si>
-    <t>digbib_3213</t>
+    <t>rwk_digbib_3213.tsv</t>
   </si>
   <si>
     <t>Frritt-Flacc!</t>
   </si>
   <si>
-    <t>digbib_3214</t>
+    <t>rwk_digbib_3214.tsv</t>
   </si>
   <si>
     <t>Martin Paz</t>
   </si>
   <si>
-    <t>digbib_3215</t>
+    <t>rwk_digbib_3215.tsv</t>
   </si>
   <si>
     <t>Meister Zacharius</t>
   </si>
   <si>
-    <t>digbib_3216</t>
+    <t>rwk_digbib_3216.tsv</t>
   </si>
   <si>
     <t>Zehn Stunden auf der Jagd</t>
-  </si>
-  <si>
-    <t>decade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1061,9 +1085,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1079,6 +1102,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="metadata_fi" connectionId="1" xr16:uid="{D6A02E1F-635A-4A42-BCF4-7267E955C10B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,7 +1125,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1110,7 +1137,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1157,6 +1184,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1192,6 +1236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1343,47 +1404,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5EBE7-E268-4447-884C-155E99126DEA}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>332</v>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1901</v>
@@ -1394,13 +1454,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1857</v>
@@ -1411,13 +1471,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1899</v>
@@ -1428,13 +1488,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>1919</v>
@@ -1445,13 +1505,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1884</v>
@@ -1462,13 +1522,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>1894</v>
@@ -1479,13 +1539,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>1894</v>
@@ -1496,13 +1556,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1842</v>
@@ -1513,13 +1573,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1897</v>
@@ -1530,13 +1590,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1905</v>
@@ -1547,10 +1607,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -1567,7 +1627,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
@@ -1584,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1601,10 +1661,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>1897</v>
@@ -1615,13 +1675,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>1905</v>
@@ -1632,13 +1692,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D17">
         <v>1894</v>
@@ -1649,13 +1709,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1884</v>
@@ -1666,13 +1726,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>1915</v>
@@ -1683,13 +1743,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>1883</v>
@@ -1700,13 +1760,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>1898</v>
@@ -1717,13 +1777,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>1875</v>
@@ -1734,13 +1794,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>1887</v>
@@ -1751,13 +1811,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>1883</v>
@@ -1768,13 +1828,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>1881</v>
@@ -1785,13 +1845,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>1919</v>
@@ -1802,13 +1862,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>1911</v>
@@ -1819,13 +1879,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28">
         <v>1911</v>
@@ -1836,13 +1896,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
       </c>
       <c r="D29">
         <v>1911</v>
@@ -1853,13 +1913,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>1911</v>
@@ -1870,13 +1930,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>1879</v>
@@ -1887,13 +1947,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <v>1877</v>
@@ -1904,13 +1964,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <v>1877</v>
@@ -1921,13 +1981,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>1877</v>
@@ -1938,13 +1998,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>1877</v>
@@ -1955,13 +2015,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D36">
         <v>1877</v>
@@ -1972,13 +2032,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D37">
         <v>1877</v>
@@ -1989,13 +2049,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D38">
         <v>1857</v>
@@ -2006,13 +2066,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" t="s">
-        <v>96</v>
       </c>
       <c r="D39">
         <v>1855</v>
@@ -2023,13 +2083,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40">
         <v>1857</v>
@@ -2040,13 +2100,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
         <v>99</v>
-      </c>
-      <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
       </c>
       <c r="D41">
         <v>1890</v>
@@ -2057,13 +2117,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D42">
         <v>1890</v>
@@ -2074,13 +2134,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
         <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" t="s">
-        <v>106</v>
       </c>
       <c r="D43">
         <v>1852</v>
@@ -2091,13 +2151,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44">
         <v>1850</v>
@@ -2108,13 +2168,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D45">
         <v>1842</v>
@@ -2125,13 +2185,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
       </c>
       <c r="D46">
         <v>1847</v>
@@ -2142,13 +2202,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
         <v>114</v>
-      </c>
-      <c r="B47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C47" t="s">
-        <v>116</v>
       </c>
       <c r="D47">
         <v>1905</v>
@@ -2159,13 +2219,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>1905</v>
@@ -2176,13 +2236,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49">
         <v>1905</v>
@@ -2193,13 +2253,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
         <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
       </c>
       <c r="D50">
         <v>1913</v>
@@ -2210,13 +2270,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51">
         <v>1913</v>
@@ -2227,13 +2287,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" t="s">
         <v>125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>126</v>
       </c>
       <c r="D52">
         <v>1913</v>
@@ -2244,13 +2304,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
         <v>127</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" t="s">
-        <v>129</v>
       </c>
       <c r="D53">
         <v>1862</v>
@@ -2261,13 +2321,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
         <v>130</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" t="s">
-        <v>132</v>
       </c>
       <c r="D54">
         <v>1889</v>
@@ -2278,13 +2338,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
         <v>133</v>
-      </c>
-      <c r="B55" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" t="s">
-        <v>134</v>
       </c>
       <c r="D55">
         <v>1889</v>
@@ -2295,13 +2355,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
         <v>135</v>
-      </c>
-      <c r="B56" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" t="s">
-        <v>136</v>
       </c>
       <c r="D56">
         <v>1889</v>
@@ -2312,7 +2372,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="B57" t="s">
         <v>137</v>
@@ -3417,13 +3477,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C122" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D122">
         <v>1886</v>
@@ -3434,13 +3494,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D123">
         <v>1886</v>
@@ -3451,13 +3511,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C124" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D124">
         <v>1882</v>
@@ -3468,13 +3528,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D125">
         <v>1885</v>
@@ -3485,13 +3545,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C126" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D126">
         <v>1874</v>
@@ -3502,13 +3562,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B127" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D127">
         <v>1875</v>
@@ -3519,13 +3579,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B128" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D128">
         <v>1883</v>
@@ -3536,13 +3596,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C129" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D129">
         <v>1874</v>
@@ -3553,13 +3613,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C130" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D130">
         <v>1874</v>
@@ -3570,13 +3630,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C131" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D131">
         <v>1884</v>
@@ -3587,13 +3647,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B132" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C132" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D132">
         <v>1879</v>
@@ -3604,13 +3664,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D133">
         <v>1917</v>
@@ -3621,13 +3681,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C134" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D134">
         <v>1917</v>
@@ -3638,13 +3698,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B135" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D135">
         <v>1917</v>
@@ -3655,13 +3715,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B136" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C136" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D136">
         <v>1856</v>
@@ -3672,13 +3732,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B137" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C137" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D137">
         <v>1875</v>
@@ -3689,13 +3749,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D138">
         <v>1875</v>
@@ -3706,13 +3766,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C139" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D139">
         <v>1875</v>
@@ -3723,13 +3783,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B140" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C140" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D140">
         <v>1887</v>
@@ -3740,13 +3800,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B141" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C141" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D141">
         <v>1875</v>
@@ -3757,13 +3817,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B142" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C142" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D142">
         <v>1875</v>
@@ -3774,13 +3834,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B143" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C143" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D143">
         <v>1885</v>
@@ -3790,7 +3850,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/additional/simplified/free_indirect/tsv/metadata_fi.xlsx
+++ b/data/additional/simplified/free_indirect/tsv/metadata_fi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_RW\corpus\data\additional\simplified\free_indirect\tsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9CC611F-DCAF-4491-B962-0C5818401E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C7D59-1ECD-4637-8C6A-637F25C4E77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14610" yWindow="1680" windowWidth="24660" windowHeight="14400" xr2:uid="{69788829-8828-4B59-A720-AB9BAA479366}"/>
+    <workbookView xWindow="4860" yWindow="3075" windowWidth="24660" windowHeight="14400" xr2:uid="{69788829-8828-4B59-A720-AB9BAA479366}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -68,988 +68,988 @@
     <t>decade</t>
   </si>
   <si>
-    <t>rwk_digbib_167.tsv</t>
-  </si>
-  <si>
     <t>Altenberg, Peter</t>
   </si>
   <si>
     <t>Paulina</t>
   </si>
   <si>
-    <t>rwk_digbib_934.tsv</t>
-  </si>
-  <si>
     <t>Bjørnson, Bjørnstjerne</t>
   </si>
   <si>
     <t>Synnöve Solbakken</t>
   </si>
   <si>
-    <t>rwk_digbib_1019.tsv</t>
-  </si>
-  <si>
     <t>?echov, Anton Pavlovi?</t>
   </si>
   <si>
     <t>Die Dame mit dem Hündchen</t>
   </si>
   <si>
-    <t>rwk_digbib_1023.tsv</t>
-  </si>
-  <si>
     <t>Christ, Lena</t>
   </si>
   <si>
     <t>Der Guldensack</t>
   </si>
   <si>
-    <t>rwk_digbib_1038.tsv</t>
-  </si>
-  <si>
     <t>Christen, Ada</t>
   </si>
   <si>
     <t>Als er heimkehrte</t>
   </si>
   <si>
-    <t>rwk_digbib_1133.tsv</t>
-  </si>
-  <si>
     <t>Dohm, Hedwig</t>
   </si>
   <si>
     <t>Werde, die Du bist!</t>
   </si>
   <si>
-    <t>rwk_digbib_1134.tsv</t>
-  </si>
-  <si>
     <t>Wie Frauen werden</t>
   </si>
   <si>
-    <t>rwk_digbib_1136.tsv</t>
-  </si>
-  <si>
     <t>Droste-Hülshoff, Annette von</t>
   </si>
   <si>
     <t>Die Judenbuche</t>
   </si>
   <si>
-    <t>rwk_digbib_1138.tsv</t>
-  </si>
-  <si>
     <t>Duncker, Dora</t>
   </si>
   <si>
     <t>Für ihr Kind</t>
   </si>
   <si>
-    <t>rwk_digbib_1139.tsv</t>
-  </si>
-  <si>
     <t>Gundula. Die Tragödie einer Ehe</t>
   </si>
   <si>
-    <t>rwk_digbib_1140.tsv</t>
-  </si>
-  <si>
     <t>Jugend</t>
   </si>
   <si>
-    <t>rwk_digbib_1141.tsv</t>
-  </si>
-  <si>
     <t>Mütter</t>
   </si>
   <si>
-    <t>rwk_digbib_1142.tsv</t>
-  </si>
-  <si>
     <t>Seine Letzte</t>
   </si>
   <si>
-    <t>rwk_digbib_1143.tsv</t>
-  </si>
-  <si>
     <t>Sturm</t>
   </si>
   <si>
-    <t>rwk_digbib_1144.tsv</t>
-  </si>
-  <si>
     <t>Unüberwindlich</t>
   </si>
   <si>
-    <t>rwk_digbib_1146.tsv</t>
-  </si>
-  <si>
     <t>Ebner-Eschenbach, Marie von</t>
   </si>
   <si>
     <t>Das Schädliche</t>
   </si>
   <si>
-    <t>rwk_digbib_1147.tsv</t>
-  </si>
-  <si>
     <t>Der gute Mond</t>
   </si>
   <si>
-    <t>rwk_digbib_1148.tsv</t>
-  </si>
-  <si>
     <t>Der Herr Hofrat</t>
   </si>
   <si>
-    <t>rwk_digbib_1149.tsv</t>
-  </si>
-  <si>
     <t>Der Kreisphysikus</t>
   </si>
   <si>
-    <t>rwk_digbib_1150.tsv</t>
-  </si>
-  <si>
     <t>Der Vorzugsschüler</t>
   </si>
   <si>
-    <t>rwk_digbib_1153.tsv</t>
-  </si>
-  <si>
     <t>Ein Spätgeborner</t>
   </si>
   <si>
-    <t>rwk_digbib_1155.tsv</t>
-  </si>
-  <si>
     <t>Ihr Traum</t>
   </si>
   <si>
-    <t>rwk_digbib_1156.tsv</t>
-  </si>
-  <si>
     <t>Krambambuli</t>
   </si>
   <si>
-    <t>rwk_digbib_1158.tsv</t>
-  </si>
-  <si>
     <t>Nach dem Tode</t>
   </si>
   <si>
-    <t>rwk_digbib_1160.tsv</t>
-  </si>
-  <si>
     <t>Essig, Hermann</t>
   </si>
   <si>
     <t>Der Wetterfrosch</t>
   </si>
   <si>
-    <t>rwk_digbib_1162.tsv</t>
-  </si>
-  <si>
     <t>Federer, Heinrich</t>
   </si>
   <si>
     <t>Der gestohlene König von Belgien</t>
   </si>
   <si>
-    <t>rwk_digbib_1163.tsv</t>
-  </si>
-  <si>
     <t>Die Manöver</t>
   </si>
   <si>
-    <t>rwk_digbib_1164.tsv</t>
-  </si>
-  <si>
     <t>Unser Nachtwächter Prometheus</t>
   </si>
   <si>
-    <t>rwk_digbib_1165.tsv</t>
-  </si>
-  <si>
     <t>Vater und Sohn im Examen</t>
   </si>
   <si>
-    <t>rwk_digbib_1167.tsv</t>
-  </si>
-  <si>
     <t>Fontane, Theodor</t>
   </si>
   <si>
     <t>Grete Minde</t>
   </si>
   <si>
-    <t>rwk_digbib_1171.tsv</t>
-  </si>
-  <si>
     <t>Franzos, Karl Emil</t>
   </si>
   <si>
     <t>Das Christusbild</t>
   </si>
   <si>
-    <t>rwk_digbib_1172.tsv</t>
-  </si>
-  <si>
     <t>Das "Kind der Sühne"</t>
   </si>
   <si>
-    <t>rwk_digbib_1173.tsv</t>
-  </si>
-  <si>
     <t>Der Shylock von Barnow</t>
   </si>
   <si>
-    <t>rwk_digbib_1174.tsv</t>
-  </si>
-  <si>
     <t>Der wilde Starost und die schöne Jütta</t>
   </si>
   <si>
-    <t>rwk_digbib_1177.tsv</t>
-  </si>
-  <si>
     <t>Nach dem höheren Gesetz</t>
   </si>
   <si>
-    <t>rwk_digbib_1178.tsv</t>
-  </si>
-  <si>
     <t>Ohne Inschrift</t>
   </si>
   <si>
-    <t>rwk_digbib_1182.tsv</t>
-  </si>
-  <si>
     <t>François, Louise von</t>
   </si>
   <si>
     <t>Der Posten der Frau</t>
   </si>
   <si>
-    <t>rwk_digbib_1183.tsv</t>
-  </si>
-  <si>
     <t>Die Geschichte meines Urgroßvaters</t>
   </si>
   <si>
-    <t>rwk_digbib_1185.tsv</t>
-  </si>
-  <si>
     <t>Phosphorus Hollunder</t>
   </si>
   <si>
-    <t>rwk_digbib_1186.tsv</t>
-  </si>
-  <si>
     <t>Frapan, Ilse</t>
   </si>
   <si>
     <t>Altmodische Leute</t>
   </si>
   <si>
-    <t>rwk_digbib_1189.tsv</t>
-  </si>
-  <si>
     <t>Die Last</t>
   </si>
   <si>
-    <t>rwk_digbib_1195.tsv</t>
-  </si>
-  <si>
     <t>Gotthelf, Jeremias</t>
   </si>
   <si>
     <t>Barthli der Korber</t>
   </si>
   <si>
-    <t>rwk_digbib_1196.tsv</t>
-  </si>
-  <si>
     <t>Das Erdbeerimareili</t>
   </si>
   <si>
-    <t>rwk_digbib_1197.tsv</t>
-  </si>
-  <si>
     <t>Die schwarze Spinne</t>
   </si>
   <si>
-    <t>rwk_digbib_1199.tsv</t>
-  </si>
-  <si>
     <t>Grillparzer, Franz</t>
   </si>
   <si>
     <t>Der arme Spielmann</t>
   </si>
   <si>
-    <t>rwk_digbib_1207.tsv</t>
-  </si>
-  <si>
     <t>Heyking, Elisabeth von</t>
   </si>
   <si>
     <t>Der Tag Anderer</t>
   </si>
   <si>
-    <t>rwk_digbib_1208.tsv</t>
-  </si>
-  <si>
     <t>Gewesen</t>
   </si>
   <si>
-    <t>rwk_digbib_1209.tsv</t>
-  </si>
-  <si>
     <t>Über einen Hund und die Monroe-Doktrin</t>
   </si>
   <si>
-    <t>rwk_digbib_1211.tsv</t>
-  </si>
-  <si>
     <t>Heym, Georg</t>
   </si>
   <si>
     <t>Der Dieb</t>
   </si>
   <si>
-    <t>rwk_digbib_1213.tsv</t>
-  </si>
-  <si>
     <t>Der Irre</t>
   </si>
   <si>
-    <t>rwk_digbib_1216.tsv</t>
-  </si>
-  <si>
     <t>Jonathan</t>
   </si>
   <si>
-    <t>rwk_digbib_1217.tsv</t>
-  </si>
-  <si>
     <t>Heyse, Paul</t>
   </si>
   <si>
     <t>Andrea Delfin</t>
   </si>
   <si>
-    <t>rwk_digbib_1224.tsv</t>
-  </si>
-  <si>
     <t>Holz, Arno</t>
   </si>
   <si>
     <t>Der erste Schultag</t>
   </si>
   <si>
-    <t>rwk_digbib_1225.tsv</t>
-  </si>
-  <si>
     <t>Ein Tod</t>
   </si>
   <si>
-    <t>rwk_digbib_1226.tsv</t>
-  </si>
-  <si>
     <t>Papa Hamlet</t>
   </si>
   <si>
-    <t>rwk_digbib_1313.tsv</t>
-  </si>
-  <si>
     <t>Janitschek, Maria</t>
   </si>
   <si>
     <t>Elias</t>
   </si>
   <si>
-    <t>rwk_digbib_1315.tsv</t>
-  </si>
-  <si>
     <t>Hysterie</t>
   </si>
   <si>
-    <t>rwk_digbib_1316.tsv</t>
-  </si>
-  <si>
     <t>In elfter Stunde</t>
   </si>
   <si>
-    <t>rwk_digbib_1317.tsv</t>
-  </si>
-  <si>
     <t>Kind Gottes</t>
   </si>
   <si>
-    <t>rwk_digbib_1318.tsv</t>
-  </si>
-  <si>
     <t>Klare Rechnung</t>
   </si>
   <si>
-    <t>rwk_digbib_1319.tsv</t>
-  </si>
-  <si>
     <t>Königin Judith</t>
   </si>
   <si>
-    <t>rwk_digbib_1320.tsv</t>
-  </si>
-  <si>
     <t>Land!</t>
   </si>
   <si>
-    <t>rwk_digbib_1321.tsv</t>
-  </si>
-  <si>
     <t>Liebeswunder</t>
   </si>
   <si>
-    <t>rwk_digbib_1322.tsv</t>
-  </si>
-  <si>
     <t>Lilienzauber</t>
   </si>
   <si>
-    <t>rwk_digbib_1328.tsv</t>
-  </si>
-  <si>
     <t>Jensen, Wilhelm</t>
   </si>
   <si>
     <t>Gradiva</t>
   </si>
   <si>
-    <t>rwk_digbib_1329.tsv</t>
-  </si>
-  <si>
     <t>Keller, Gottfried</t>
   </si>
   <si>
     <t>Das Fähnlein der sieben Aufrechten</t>
   </si>
   <si>
-    <t>rwk_digbib_1331.tsv</t>
-  </si>
-  <si>
     <t>Das verlorne Lachen</t>
   </si>
   <si>
-    <t>rwk_digbib_1332.tsv</t>
-  </si>
-  <si>
     <t>Der Landvogt von Greifensee</t>
   </si>
   <si>
-    <t>rwk_digbib_1338.tsv</t>
-  </si>
-  <si>
     <t>Frau Regel Amrain und ihr Jüngster</t>
   </si>
   <si>
-    <t>rwk_digbib_1339.tsv</t>
-  </si>
-  <si>
     <t>Hadlaub</t>
   </si>
   <si>
-    <t>rwk_digbib_1342.tsv</t>
-  </si>
-  <si>
     <t>Romeo und Julia auf dem Dorfe</t>
   </si>
   <si>
-    <t>rwk_digbib_1345.tsv</t>
-  </si>
-  <si>
     <t>Keyserling, Eduard von</t>
   </si>
   <si>
     <t>Beate und Mareile</t>
   </si>
   <si>
-    <t>rwk_digbib_1346.tsv</t>
-  </si>
-  <si>
     <t>Schwüle Tage</t>
   </si>
   <si>
-    <t>rwk_digbib_1865.tsv</t>
-  </si>
-  <si>
     <t>Kurz, Hermann</t>
   </si>
   <si>
     <t>Die beiden Tubus</t>
   </si>
   <si>
-    <t>rwk_digbib_1868.tsv</t>
-  </si>
-  <si>
     <t>Leskov, Semënovi? Nikolaj</t>
   </si>
   <si>
     <t>Der versiegelte Engel</t>
   </si>
   <si>
-    <t>rwk_digbib_1891.tsv</t>
-  </si>
-  <si>
     <t>Marlitt, Eugenie</t>
   </si>
   <si>
     <t>Blaubart</t>
   </si>
   <si>
-    <t>rwk_digbib_1892.tsv</t>
-  </si>
-  <si>
     <t>Die zwölf Apostel</t>
   </si>
   <si>
-    <t>rwk_digbib_1967.tsv</t>
-  </si>
-  <si>
     <t>Meyer, Conrad Ferdinand</t>
   </si>
   <si>
     <t>Das Amulett</t>
   </si>
   <si>
-    <t>rwk_digbib_1968.tsv</t>
-  </si>
-  <si>
     <t>Das Leiden eines Knaben</t>
   </si>
   <si>
-    <t>rwk_digbib_1970.tsv</t>
-  </si>
-  <si>
     <t>Der Schuß von der Kanzel</t>
   </si>
   <si>
-    <t>rwk_digbib_1971.tsv</t>
-  </si>
-  <si>
     <t>Die Hochzeit des Mönchs</t>
   </si>
   <si>
-    <t>rwk_digbib_1972.tsv</t>
-  </si>
-  <si>
     <t>Die Richterin</t>
   </si>
   <si>
-    <t>rwk_digbib_1974.tsv</t>
-  </si>
-  <si>
     <t>Gustav Adolfs Page</t>
   </si>
   <si>
-    <t>rwk_digbib_1977.tsv</t>
-  </si>
-  <si>
     <t>Meyrink, Gustav</t>
   </si>
   <si>
     <t>Blamol</t>
   </si>
   <si>
-    <t>rwk_digbib_1980.tsv</t>
-  </si>
-  <si>
     <t>Coagulum</t>
   </si>
   <si>
-    <t>rwk_digbib_1982.tsv</t>
-  </si>
-  <si>
     <t>Das Buch Hiopp</t>
   </si>
   <si>
-    <t>rwk_digbib_2012.tsv</t>
-  </si>
-  <si>
     <t>Hilligenlei</t>
   </si>
   <si>
-    <t>rwk_digbib_2026.tsv</t>
-  </si>
-  <si>
     <t>Meysenbug, Malwida Freiin von</t>
   </si>
   <si>
     <t>Unerfüllt</t>
   </si>
   <si>
-    <t>rwk_digbib_2027.tsv</t>
-  </si>
-  <si>
     <t>Zu spät</t>
   </si>
   <si>
-    <t>rwk_digbib_2031.tsv</t>
-  </si>
-  <si>
     <t>Mörike, Eduard</t>
   </si>
   <si>
     <t>Mozart auf der Reise nach Prag</t>
   </si>
   <si>
-    <t>rwk_digbib_2444.tsv</t>
-  </si>
-  <si>
     <t>Müller, Robert</t>
   </si>
   <si>
     <t>Irmelin Rose</t>
   </si>
   <si>
-    <t>rwk_digbib_2445.tsv</t>
-  </si>
-  <si>
     <t>Panizza, Oskar</t>
   </si>
   <si>
     <t>Aus dem Tagebuch eines Hundes</t>
   </si>
   <si>
-    <t>rwk_digbib_2451.tsv</t>
-  </si>
-  <si>
     <t>Der operirte Jud'</t>
   </si>
   <si>
-    <t>rwk_digbib_2455.tsv</t>
-  </si>
-  <si>
     <t>Eine Mondgeschichte</t>
   </si>
   <si>
-    <t>rwk_digbib_2459.tsv</t>
-  </si>
-  <si>
     <t>Ein scandalöser Fall</t>
   </si>
   <si>
-    <t>rwk_digbib_2462.tsv</t>
-  </si>
-  <si>
     <t>Poe, Edgar Allan</t>
   </si>
   <si>
     <t>Das Geheimnis der Marie Rogêt</t>
   </si>
   <si>
-    <t>rwk_digbib_2622.tsv</t>
-  </si>
-  <si>
     <t>Raabe, Wilhelm</t>
   </si>
   <si>
     <t>Die Gänse von Bützow</t>
   </si>
   <si>
-    <t>rwk_digbib_2623.tsv</t>
-  </si>
-  <si>
     <t>Die schwarze Galeere</t>
   </si>
   <si>
-    <t>rwk_digbib_2624.tsv</t>
-  </si>
-  <si>
     <t>Else von der Tanne</t>
   </si>
   <si>
-    <t>rwk_digbib_2625.tsv</t>
-  </si>
-  <si>
     <t>Frau Salome</t>
   </si>
   <si>
-    <t>rwk_digbib_2650.tsv</t>
-  </si>
-  <si>
     <t>Riehl, Wilhelm Heinrich von</t>
   </si>
   <si>
     <t>Der Stadtpfeifer</t>
   </si>
   <si>
-    <t>rwk_digbib_2651.tsv</t>
-  </si>
-  <si>
     <t>Die Lehrjahre eines Humanisten</t>
   </si>
   <si>
-    <t>rwk_digbib_2652.tsv</t>
-  </si>
-  <si>
     <t>Die Werke der Barmherzigkeit</t>
   </si>
   <si>
-    <t>rwk_digbib_2653.tsv</t>
-  </si>
-  <si>
     <t>Gräfin Ursula</t>
   </si>
   <si>
-    <t>rwk_digbib_2655.tsv</t>
-  </si>
-  <si>
     <t>Meister Martin Hildebrand</t>
   </si>
   <si>
-    <t>rwk_digbib_2656.tsv</t>
-  </si>
-  <si>
     <t>Ovid bei Hofe</t>
   </si>
   <si>
-    <t>rwk_digbib_2661.tsv</t>
-  </si>
-  <si>
     <t>Rosegger, Peter</t>
   </si>
   <si>
     <t>Ein Letztes vom alten Meister Naz</t>
   </si>
   <si>
-    <t>rwk_digbib_2801.tsv</t>
-  </si>
-  <si>
     <t>Saar, Ferdinand von</t>
   </si>
   <si>
     <t>Die Pfründer</t>
   </si>
   <si>
-    <t>rwk_digbib_2806.tsv</t>
-  </si>
-  <si>
     <t>Geschichte eines Wienerkindes</t>
   </si>
   <si>
-    <t>rwk_digbib_2808.tsv</t>
-  </si>
-  <si>
     <t>Herr Fridolin und sein Glück</t>
   </si>
   <si>
-    <t>rwk_digbib_2996.tsv</t>
-  </si>
-  <si>
     <t>Schnitzler, Arthur</t>
   </si>
   <si>
     <t>Casanovas Heimfahrt</t>
   </si>
   <si>
-    <t>rwk_digbib_2998.tsv</t>
-  </si>
-  <si>
     <t>Das Schicksal des Freiherrn von Leisenbohg</t>
   </si>
   <si>
-    <t>rwk_digbib_3001.tsv</t>
-  </si>
-  <si>
     <t>Der blinde Geronimo und sein Bruder</t>
   </si>
   <si>
-    <t>rwk_digbib_3002.tsv</t>
-  </si>
-  <si>
     <t>Der Ehrentag</t>
   </si>
   <si>
-    <t>rwk_digbib_3016.tsv</t>
-  </si>
-  <si>
     <t>Die Toten schweigen</t>
   </si>
   <si>
-    <t>rwk_digbib_3018.tsv</t>
-  </si>
-  <si>
     <t>Doktor Gräsler, Badearzt</t>
   </si>
   <si>
-    <t>rwk_digbib_3019.tsv</t>
-  </si>
-  <si>
     <t>Ein Abschied</t>
   </si>
   <si>
-    <t>rwk_digbib_3022.tsv</t>
-  </si>
-  <si>
     <t>Frau Beate und ihr Sohn</t>
   </si>
   <si>
-    <t>rwk_digbib_3028.tsv</t>
-  </si>
-  <si>
     <t>Reichtum</t>
   </si>
   <si>
-    <t>rwk_digbib_3029.tsv</t>
-  </si>
-  <si>
     <t>Sterben</t>
   </si>
   <si>
-    <t>rwk_digbib_3140.tsv</t>
-  </si>
-  <si>
     <t>Storm, Theodor</t>
   </si>
   <si>
     <t>Bötjer Basch</t>
   </si>
   <si>
-    <t>rwk_digbib_3155.tsv</t>
-  </si>
-  <si>
     <t>Ein Doppelgänger</t>
   </si>
   <si>
-    <t>rwk_digbib_3159.tsv</t>
-  </si>
-  <si>
     <t>Hans und Heinz Kirch</t>
   </si>
   <si>
-    <t>rwk_digbib_3167.tsv</t>
-  </si>
-  <si>
     <t>John Riew'</t>
   </si>
   <si>
-    <t>rwk_digbib_3169.tsv</t>
-  </si>
-  <si>
     <t>Pole Poppenspaeler</t>
   </si>
   <si>
-    <t>rwk_digbib_3170.tsv</t>
-  </si>
-  <si>
     <t>Psyche</t>
   </si>
   <si>
-    <t>rwk_digbib_3172.tsv</t>
-  </si>
-  <si>
     <t>Schweigen</t>
   </si>
   <si>
-    <t>rwk_digbib_3175.tsv</t>
-  </si>
-  <si>
     <t>Viola tricolor</t>
   </si>
   <si>
-    <t>rwk_digbib_3176.tsv</t>
-  </si>
-  <si>
     <t>Waldwinkel</t>
   </si>
   <si>
-    <t>rwk_digbib_3177.tsv</t>
-  </si>
-  <si>
     <t>Zur Chronik von Gieshuus</t>
   </si>
   <si>
-    <t>rwk_digbib_3178.tsv</t>
-  </si>
-  <si>
     <t>Zur Wald- und Wasserfreude</t>
   </si>
   <si>
-    <t>rwk_digbib_3180.tsv</t>
-  </si>
-  <si>
     <t>Sudermann, Hermann</t>
   </si>
   <si>
     <t>Die Magd</t>
   </si>
   <si>
-    <t>rwk_digbib_3181.tsv</t>
-  </si>
-  <si>
     <t>Die Reise nach Tilsit</t>
   </si>
   <si>
-    <t>rwk_digbib_3183.tsv</t>
-  </si>
-  <si>
     <t>Miks Bumbullis</t>
   </si>
   <si>
-    <t>rwk_digbib_3188.tsv</t>
-  </si>
-  <si>
     <t>Turgenev, Ivan Sergeeviç</t>
   </si>
   <si>
     <t>Faust. Erzählung in neun Briefen</t>
   </si>
   <si>
-    <t>rwk_digbib_3208.tsv</t>
-  </si>
-  <si>
     <t>Verne, Jules</t>
   </si>
   <si>
     <t>Die Blockade-Brecher</t>
   </si>
   <si>
-    <t>rwk_digbib_3210.tsv</t>
-  </si>
-  <si>
     <t>Eine Ueberwinterung im Eise</t>
   </si>
   <si>
-    <t>rwk_digbib_3211.tsv</t>
-  </si>
-  <si>
     <t>Ein Drama in den Lüften</t>
   </si>
   <si>
-    <t>rwk_digbib_3213.tsv</t>
-  </si>
-  <si>
     <t>Frritt-Flacc!</t>
   </si>
   <si>
-    <t>rwk_digbib_3214.tsv</t>
-  </si>
-  <si>
     <t>Martin Paz</t>
   </si>
   <si>
-    <t>rwk_digbib_3215.tsv</t>
-  </si>
-  <si>
     <t>Meister Zacharius</t>
   </si>
   <si>
-    <t>rwk_digbib_3216.tsv</t>
-  </si>
-  <si>
     <t>Zehn Stunden auf der Jagd</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_167.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_934.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1019.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1023.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1038.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1133.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1134.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1136.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1138.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1139.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1140.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1141.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1142.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1143.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1144.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1146.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1147.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1148.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1149.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1150.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1153.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1155.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1156.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1158.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1160.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1162.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1163.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1164.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1165.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1167.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1171.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1172.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1173.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1174.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1177.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1178.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1182.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1183.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1185.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1186.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1189.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1195.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1196.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1197.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1199.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1207.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1208.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1209.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1211.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1213.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1216.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1217.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1224.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1225.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1226.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1313.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1315.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1316.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1317.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1318.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1319.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1320.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1321.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1322.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1328.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1329.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1331.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1332.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1338.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1339.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1342.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1345.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1346.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1865.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1868.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1891.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1892.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1967.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1968.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1970.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1971.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1972.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1974.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1977.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1980.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_1982.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2012.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2026.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2027.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2031.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2444.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2445.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2451.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2455.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2459.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2462.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2622.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2623.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2624.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2625.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2650.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2651.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2652.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2653.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2655.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2656.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2661.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2801.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2806.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2808.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2996.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_2998.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3001.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3002.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3016.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3018.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3019.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3022.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3028.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3029.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3140.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3155.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3159.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3167.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3169.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3170.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3172.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3175.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3176.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3177.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3178.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3180.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3181.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3183.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3188.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3208.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3210.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3211.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3213.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3214.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3215.tsv</t>
+  </si>
+  <si>
+    <t>rwz_fi_digbib_3216.tsv</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1407,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5EBE7-E268-4447-884C-155E99126DEA}">
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1437,13 +1439,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2">
         <v>1901</v>
@@ -1454,13 +1456,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>1857</v>
@@ -1471,13 +1473,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1899</v>
@@ -1488,13 +1490,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1919</v>
@@ -1505,13 +1507,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1884</v>
@@ -1522,13 +1524,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1894</v>
@@ -1539,13 +1541,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>1894</v>
@@ -1556,13 +1558,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1842</v>
@@ -1573,13 +1575,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1897</v>
@@ -1590,13 +1592,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>1905</v>
@@ -1607,13 +1609,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>1905</v>
@@ -1624,13 +1626,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D13">
         <v>1897</v>
@@ -1641,13 +1643,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D14">
         <v>1905</v>
@@ -1658,13 +1660,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D15">
         <v>1897</v>
@@ -1675,13 +1677,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>1905</v>
@@ -1692,13 +1694,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>1894</v>
@@ -1709,13 +1711,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>1884</v>
@@ -1726,13 +1728,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>1915</v>
@@ -1743,13 +1745,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>1883</v>
@@ -1760,13 +1762,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>1898</v>
@@ -1777,13 +1779,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>1875</v>
@@ -1794,13 +1796,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>1887</v>
@@ -1811,13 +1813,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>1883</v>
@@ -1828,13 +1830,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D25">
         <v>1881</v>
@@ -1845,13 +1847,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>1919</v>
@@ -1862,13 +1864,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D27">
         <v>1911</v>
@@ -1879,13 +1881,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D28">
         <v>1911</v>
@@ -1896,13 +1898,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D29">
         <v>1911</v>
@@ -1913,13 +1915,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D30">
         <v>1911</v>
@@ -1930,13 +1932,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D31">
         <v>1879</v>
@@ -1947,13 +1949,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="D32">
         <v>1877</v>
@@ -1964,13 +1966,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>1877</v>
@@ -1981,13 +1983,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="D34">
         <v>1877</v>
@@ -1998,13 +2000,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D35">
         <v>1877</v>
@@ -2015,13 +2017,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>1877</v>
@@ -2032,13 +2034,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>1877</v>
@@ -2049,13 +2051,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D38">
         <v>1857</v>
@@ -2066,13 +2068,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>1855</v>
@@ -2083,13 +2085,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D40">
         <v>1857</v>
@@ -2100,13 +2102,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>1890</v>
@@ -2117,13 +2119,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>1890</v>
@@ -2134,13 +2136,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D43">
         <v>1852</v>
@@ -2151,13 +2153,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D44">
         <v>1850</v>
@@ -2168,13 +2170,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>1842</v>
@@ -2185,13 +2187,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="D46">
         <v>1847</v>
@@ -2202,13 +2204,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="D47">
         <v>1905</v>
@@ -2219,13 +2221,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="D48">
         <v>1905</v>
@@ -2236,13 +2238,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D49">
         <v>1905</v>
@@ -2253,13 +2255,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="D50">
         <v>1913</v>
@@ -2270,13 +2272,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D51">
         <v>1913</v>
@@ -2287,13 +2289,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="D52">
         <v>1913</v>
@@ -2304,13 +2306,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D53">
         <v>1862</v>
@@ -2321,13 +2323,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="D54">
         <v>1889</v>
@@ -2338,13 +2340,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D55">
         <v>1889</v>
@@ -2355,13 +2357,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <v>1889</v>
@@ -2372,13 +2374,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="D57">
         <v>1897</v>
@@ -2389,13 +2391,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="D58">
         <v>1902</v>
@@ -2406,13 +2408,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D59">
         <v>1895</v>
@@ -2423,13 +2425,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>1897</v>
@@ -2440,13 +2442,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="D61">
         <v>1897</v>
@@ -2457,13 +2459,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="D62">
         <v>1895</v>
@@ -2474,13 +2476,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="D63">
         <v>1897</v>
@@ -2491,13 +2493,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="D64">
         <v>1900</v>
@@ -2508,13 +2510,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="D65">
         <v>1895</v>
@@ -2525,13 +2527,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="D66">
         <v>1903</v>
@@ -2542,13 +2544,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="D67">
         <v>1860</v>
@@ -2559,13 +2561,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>95</v>
       </c>
       <c r="D68">
         <v>1874</v>
@@ -2576,13 +2578,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="D69">
         <v>1877</v>
@@ -2593,13 +2595,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="B70" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="D70">
         <v>1856</v>
@@ -2610,13 +2612,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="D71">
         <v>1876</v>
@@ -2627,13 +2629,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="D72">
         <v>1856</v>
@@ -2644,13 +2646,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D73">
         <v>1903</v>
@@ -2661,13 +2663,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>263</v>
       </c>
       <c r="B74" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="D74">
         <v>1904</v>
@@ -2678,13 +2680,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="B75" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="D75">
         <v>1859</v>
@@ -2695,13 +2697,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="D76">
         <v>1873</v>
@@ -2712,13 +2714,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="B77" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="D77">
         <v>1866</v>
@@ -2729,13 +2731,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="D78">
         <v>1865</v>
@@ -2746,13 +2748,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>268</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="D79">
         <v>1873</v>
@@ -2763,13 +2765,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="D80">
         <v>1883</v>
@@ -2780,13 +2782,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="D81">
         <v>1877</v>
@@ -2797,13 +2799,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="D82">
         <v>1883</v>
@@ -2814,13 +2816,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="D83">
         <v>1885</v>
@@ -2831,13 +2833,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="D84">
         <v>1882</v>
@@ -2848,13 +2850,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="D85">
         <v>1913</v>
@@ -2865,13 +2867,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="D86">
         <v>1913</v>
@@ -2882,13 +2884,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="D87">
         <v>1913</v>
@@ -2899,13 +2901,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
       <c r="D88">
         <v>1913</v>
@@ -2916,13 +2918,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>278</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c r="D89">
         <v>1907</v>
@@ -2933,13 +2935,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="D90">
         <v>1907</v>
@@ -2950,13 +2952,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="B91" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="D91">
         <v>1855</v>
@@ -2967,13 +2969,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D92">
         <v>1914</v>
@@ -2984,13 +2986,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="B93" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C93" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="D93">
         <v>1892</v>
@@ -3001,13 +3003,13 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>131</v>
       </c>
       <c r="D94">
         <v>1893</v>
@@ -3018,13 +3020,13 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="D95">
         <v>1890</v>
@@ -3035,13 +3037,13 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="D96">
         <v>1893</v>
@@ -3052,13 +3054,13 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>229</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>230</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>231</v>
+        <v>135</v>
       </c>
       <c r="D97">
         <v>1842</v>
@@ -3069,13 +3071,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>232</v>
+        <v>287</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>234</v>
+        <v>137</v>
       </c>
       <c r="D98">
         <v>1866</v>
@@ -3086,13 +3088,13 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="D99">
         <v>1861</v>
@@ -3103,13 +3105,13 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="C100" t="s">
-        <v>238</v>
+        <v>139</v>
       </c>
       <c r="D100">
         <v>1865</v>
@@ -3120,13 +3122,13 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>136</v>
       </c>
       <c r="C101" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="D101">
         <v>1875</v>
@@ -3137,13 +3139,13 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="D102">
         <v>1862</v>
@@ -3154,13 +3156,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C103" t="s">
-        <v>245</v>
+        <v>143</v>
       </c>
       <c r="D103">
         <v>1862</v>
@@ -3171,13 +3173,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>246</v>
+        <v>293</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="D104">
         <v>1862</v>
@@ -3188,13 +3190,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>145</v>
       </c>
       <c r="D105">
         <v>1862</v>
@@ -3205,13 +3207,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>250</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="D106">
         <v>1862</v>
@@ -3222,13 +3224,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="B107" t="s">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="D107">
         <v>1862</v>
@@ -3239,13 +3241,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="B108" t="s">
-        <v>255</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="D108">
         <v>1877</v>
@@ -3256,13 +3258,13 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="C109" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="D109">
         <v>1906</v>
@@ -3273,13 +3275,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="C110" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="D110">
         <v>1877</v>
@@ -3290,13 +3292,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="D111">
         <v>1877</v>
@@ -3307,13 +3309,13 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="D112">
         <v>1918</v>
@@ -3324,13 +3326,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C113" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
       <c r="D113">
         <v>1904</v>
@@ -3341,13 +3343,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="B114" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
       <c r="D114">
         <v>1900</v>
@@ -3358,13 +3360,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C115" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="D115">
         <v>1897</v>
@@ -3375,13 +3377,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="D116">
         <v>1897</v>
@@ -3392,13 +3394,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C117" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="D117">
         <v>1917</v>
@@ -3409,13 +3411,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="D118">
         <v>1896</v>
@@ -3426,13 +3428,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c r="D119">
         <v>1913</v>
@@ -3443,13 +3445,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
-        <v>282</v>
+        <v>163</v>
       </c>
       <c r="D120">
         <v>1891</v>
@@ -3460,13 +3462,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>154</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>164</v>
       </c>
       <c r="D121">
         <v>1894</v>
@@ -3477,13 +3479,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>166</v>
       </c>
       <c r="D122">
         <v>1886</v>
@@ -3494,13 +3496,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B123" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C123" t="s">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="D123">
         <v>1886</v>
@@ -3511,13 +3513,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="B124" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C124" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="D124">
         <v>1882</v>
@@ -3528,13 +3530,13 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="B125" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="D125">
         <v>1885</v>
@@ -3545,13 +3547,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="B126" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C126" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
       <c r="D126">
         <v>1874</v>
@@ -3562,13 +3564,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="D127">
         <v>1875</v>
@@ -3579,13 +3581,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B128" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C128" t="s">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="D128">
         <v>1883</v>
@@ -3596,13 +3598,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B129" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C129" t="s">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="D129">
         <v>1874</v>
@@ -3613,13 +3615,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B130" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>174</v>
       </c>
       <c r="D130">
         <v>1874</v>
@@ -3630,13 +3632,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B131" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="D131">
         <v>1884</v>
@@ -3647,13 +3649,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="B132" t="s">
-        <v>286</v>
+        <v>165</v>
       </c>
       <c r="C132" t="s">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="D132">
         <v>1879</v>
@@ -3664,13 +3666,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="B133" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s">
-        <v>310</v>
+        <v>178</v>
       </c>
       <c r="D133">
         <v>1917</v>
@@ -3681,13 +3683,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="D134">
         <v>1917</v>
@@ -3698,13 +3700,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B135" t="s">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="C135" t="s">
-        <v>314</v>
+        <v>180</v>
       </c>
       <c r="D135">
         <v>1917</v>
@@ -3715,13 +3717,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="D136">
         <v>1856</v>
@@ -3732,13 +3734,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B137" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="D137">
         <v>1875</v>
@@ -3749,13 +3751,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B138" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C138" t="s">
-        <v>322</v>
+        <v>185</v>
       </c>
       <c r="D138">
         <v>1875</v>
@@ -3766,13 +3768,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C139" t="s">
-        <v>324</v>
+        <v>186</v>
       </c>
       <c r="D139">
         <v>1875</v>
@@ -3783,13 +3785,13 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B140" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C140" t="s">
-        <v>326</v>
+        <v>187</v>
       </c>
       <c r="D140">
         <v>1887</v>
@@ -3800,13 +3802,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B141" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C141" t="s">
-        <v>328</v>
+        <v>188</v>
       </c>
       <c r="D141">
         <v>1875</v>
@@ -3817,13 +3819,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B142" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C142" t="s">
-        <v>330</v>
+        <v>189</v>
       </c>
       <c r="D142">
         <v>1875</v>
@@ -3834,13 +3836,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B143" t="s">
-        <v>319</v>
+        <v>183</v>
       </c>
       <c r="C143" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="D143">
         <v>1885</v>
